--- a/ABBV.xlsx
+++ b/ABBV.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38105E0-A288-46FA-BF7F-C858173B0257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7790CCD8-0F05-4910-BF3D-4C21BC9B7577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="795" windowWidth="22200" windowHeight="14685" activeTab="5" xr2:uid="{5AA46402-15B0-4FC0-8E3D-B86295590FFA}"/>
+    <workbookView xWindow="1050" yWindow="720" windowWidth="22200" windowHeight="14535" activeTab="1" xr2:uid="{5AA46402-15B0-4FC0-8E3D-B86295590FFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2709,11 +2709,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9935B7F5-3F26-4E65-930A-A4889CFBAE6E}">
   <dimension ref="A1:EF72"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="R20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="T35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U41" sqref="U41"/>
+      <selection pane="bottomRight" activeCell="Y35" sqref="Y35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7181,7 +7181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1821AE52-0544-46E9-93D9-C9ACA7CED10F}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
